--- a/Ground Truth and Results/varanasi_big.xlsx
+++ b/Ground Truth and Results/varanasi_big.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Documents\Semester_7\BTP - 1\Ground truth\big\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Documents\Semester_7\BTP - 1\BTP\Ground Truth and Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784981DE-5A09-4645-8B7B-F03DE72A74EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8643BF44-65C8-45E4-A8A3-3F7F3474EE5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Event categories" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Event categories'!$C$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Event categories'!$C$1:$C$40</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -207,9 +207,6 @@
     <t>2016-12</t>
   </si>
   <si>
-    <t>modi visits varanasi and promises 1000 crore hospitals</t>
-  </si>
-  <si>
     <t>2017-01</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>kamal hassan case</t>
   </si>
   <si>
-    <t>Satellite</t>
-  </si>
-  <si>
     <t>"YES" COUNT</t>
   </si>
   <si>
@@ -346,6 +340,18 @@
   </si>
   <si>
     <t>Useful</t>
+  </si>
+  <si>
+    <t>2014-07, 2014-09</t>
+  </si>
+  <si>
+    <t>2017-01, 2017-03</t>
+  </si>
+  <si>
+    <t>2014-06, 2016-06, 2018-05</t>
+  </si>
+  <si>
+    <t>modi visits varanasi and promises 1000 crore hospitals and Pre UP elections</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1008,6 +1020,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,19 +1078,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2253,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2699,7 +2749,7 @@
         <v>59</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>6</v>
@@ -2711,10 +2761,10 @@
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>9</v>
@@ -2726,10 +2776,10 @@
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>9</v>
@@ -2741,10 +2791,10 @@
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>9</v>
@@ -2756,10 +2806,10 @@
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>9</v>
@@ -2771,10 +2821,10 @@
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>9</v>
@@ -2786,10 +2836,10 @@
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>9</v>
@@ -2823,7 +2873,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2849,33 +2899,33 @@
     <row r="2" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>75</v>
+      <c r="A3" s="59" t="s">
+        <v>74</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="58"/>
+      <c r="C3" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="66"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53" t="s">
-        <v>73</v>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61" t="s">
+        <v>72</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>10</v>
@@ -2892,8 +2942,8 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="17" t="s">
         <v>14</v>
       </c>
@@ -2909,8 +2959,8 @@
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2926,8 +2976,8 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
@@ -2943,8 +2993,8 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="17" t="s">
         <v>30</v>
       </c>
@@ -2960,8 +3010,8 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="17" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3027,8 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -2994,8 +3044,8 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="19" t="s">
         <v>41</v>
       </c>
@@ -3011,8 +3061,8 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="19" t="s">
         <v>51</v>
       </c>
@@ -3020,16 +3070,16 @@
         <v>52</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="19" t="s">
         <v>53</v>
       </c>
@@ -3037,59 +3087,59 @@
         <v>54</v>
       </c>
       <c r="E13" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="E14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="60"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="19" t="s">
-        <v>63</v>
-      </c>
       <c r="D15" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="18"/>
@@ -3097,8 +3147,8 @@
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="18"/>
@@ -3106,8 +3156,8 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="20"/>
@@ -3115,8 +3165,8 @@
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="20"/>
@@ -3124,8 +3174,8 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="20"/>
@@ -3133,8 +3183,8 @@
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="20"/>
@@ -3142,8 +3192,8 @@
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="29"/>
       <c r="D23" s="30"/>
       <c r="E23" s="21"/>
@@ -3151,17 +3201,17 @@
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55" t="s">
-        <v>74</v>
+      <c r="A25" s="60"/>
+      <c r="B25" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>7</v>
@@ -3177,8 +3227,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="22" t="s">
         <v>16</v>
       </c>
@@ -3193,8 +3243,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
-      <c r="B27" s="56"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="22" t="s">
         <v>22</v>
       </c>
@@ -3205,8 +3255,8 @@
       <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="56"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="22" t="s">
         <v>28</v>
       </c>
@@ -3217,8 +3267,8 @@
       <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="56"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="22" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3279,8 @@
       <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="22" t="s">
         <v>49</v>
       </c>
@@ -3241,8 +3291,8 @@
       <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="22" t="s">
         <v>57</v>
       </c>
@@ -3253,13 +3303,13 @@
       <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
@@ -3286,1403 +3336,1231 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.7" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="256" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="11" max="254" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="52"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="B3" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="I34" s="10"/>
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="G35" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="K37" s="26"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="G38" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="K39" s="26"/>
+    </row>
+    <row r="40" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="51">
+        <f>COUNTIF(B3:B39,"YES")</f>
         <v>13</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="C40" s="51">
+        <f t="shared" ref="C40:F40" si="0">COUNTIF(C3:C39,"YES")</f>
         <v>19</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="62">
-        <f>COUNTIF(B2:B38,"YES")</f>
-        <v>13</v>
-      </c>
-      <c r="C39" s="62">
-        <f t="shared" ref="B39:H39" si="0">COUNTIF(C2:C38,"YES")</f>
-        <v>19</v>
-      </c>
-      <c r="D39" s="62">
+      <c r="D40" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E40" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F39" s="62">
+      <c r="F40" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="62">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H39" s="62">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-    </row>
-    <row r="40" spans="1:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="62">
-        <f t="shared" ref="B40:G40" si="1">COUNTIF(B2:B38,"NO")</f>
+      <c r="G40" s="56"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="K40" s="45"/>
+    </row>
+    <row r="41" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="51">
+        <f t="shared" ref="B41:F41" si="1">COUNTIF(B3:B39,"NO")</f>
         <v>24</v>
       </c>
-      <c r="C40" s="62">
+      <c r="C41" s="51">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D40" s="62">
+      <c r="D41" s="51">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E41" s="51">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="F40" s="62">
+      <c r="F41" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="62">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="H40" s="62">
-        <f>COUNTIF(H2:H38,"NO")</f>
-        <v>10</v>
-      </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-    </row>
-    <row r="41" spans="1:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="26"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="49"/>
       <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
       <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-    </row>
-    <row r="42" spans="1:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="56"/>
       <c r="H42" s="26"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-    </row>
-    <row r="44" spans="1:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
+      <c r="I42" s="26"/>
+      <c r="K42" s="26"/>
+    </row>
+    <row r="43" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="K43" s="26"/>
+    </row>
+    <row r="45" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C39" xr:uid="{11FFED9F-179C-4FAF-8DBE-ABF26FFF8871}"/>
-  <conditionalFormatting sqref="G2:G38 G41">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G2)))</formula>
+  <autoFilter ref="C1:C40" xr:uid="{11FFED9F-179C-4FAF-8DBE-ABF26FFF8871}"/>
+  <conditionalFormatting sqref="B3:F39 D42:F42">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H38 D41:G41">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="YES">
+  <conditionalFormatting sqref="C3:C39">
+    <cfRule type="uniqueValues" dxfId="4" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C38">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="uniqueValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I38">
+  <conditionalFormatting sqref="G3:G39">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",G3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",I2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
